--- a/Results/Table/GO/GOTables.xlsx
+++ b/Results/Table/GO/GOTables.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liqun/Desktop/Projects/Covid19/Data/Code/SARSCoV2/Results/Table/GO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18FC8C1-587D-894F-A828-5D4DC0606D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B644299-58E5-BA4F-938A-09ED3B36646D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="980" windowWidth="51200" windowHeight="27180" activeTab="2" xr2:uid="{93A687F3-334D-9842-9075-11D8250A696A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27180" activeTab="2" xr2:uid="{93A687F3-334D-9842-9075-11D8250A696A}"/>
   </bookViews>
   <sheets>
-    <sheet name="GO_Mock_NT_Up" sheetId="1" r:id="rId1"/>
-    <sheet name="GO_Mock_NT_Down" sheetId="2" r:id="rId2"/>
-    <sheet name="GO_NT_T_Up" sheetId="3" r:id="rId3"/>
-    <sheet name="GO_NT_T_Down" sheetId="4" r:id="rId4"/>
+    <sheet name="GO_NT_Mock_Up" sheetId="1" r:id="rId1"/>
+    <sheet name="GO_NT_Mock_Down" sheetId="2" r:id="rId2"/>
+    <sheet name="GO_T_NT_Up" sheetId="3" r:id="rId3"/>
+    <sheet name="GO_T_NT_Down" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="1253">
   <si>
     <t>ID</t>
   </si>
@@ -3685,9 +3685,6 @@
     <t>204/11271</t>
   </si>
   <si>
-    <t>CXCL2/CXCL1/H2BC21/H2BC7</t>
-  </si>
-  <si>
     <t>GO:0071103</t>
   </si>
   <si>
@@ -3695,12 +3692,6 @@
   </si>
   <si>
     <t>234/11271</t>
-  </si>
-  <si>
-    <t>GO:0019730</t>
-  </si>
-  <si>
-    <t>antimicrobial humoral response</t>
   </si>
   <si>
     <t>GO:0045292</t>
@@ -13295,15 +13286,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E5178D-0FDD-2241-8A63-33B7EAC3D272}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="64.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -13598,16 +13590,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B11" t="s">
         <v>1217</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1218</v>
       </c>
       <c r="C11" t="s">
         <v>1192</v>
       </c>
       <c r="D11" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E11" s="1">
         <v>4.0453939014479399E-6</v>
@@ -13627,28 +13619,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B12" t="s">
         <v>1220</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1221</v>
       </c>
       <c r="C12" t="s">
         <v>1208</v>
       </c>
       <c r="D12" t="s">
-        <v>1090</v>
+        <v>619</v>
       </c>
       <c r="E12" s="1">
-        <v>8.0315616066733092E-6</v>
+        <v>9.1121480683927097E-6</v>
       </c>
       <c r="F12">
-        <v>5.8831188768882002E-4</v>
+        <v>6.1612139631670696E-4</v>
       </c>
       <c r="G12">
-        <v>5.25574119173534E-4</v>
+        <v>5.50418012876191E-4</v>
       </c>
       <c r="H12" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -13656,25 +13648,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B13" t="s">
         <v>1222</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1223</v>
       </c>
       <c r="C13" t="s">
         <v>1208</v>
       </c>
       <c r="D13" t="s">
-        <v>619</v>
+        <v>1109</v>
       </c>
       <c r="E13" s="1">
-        <v>9.1121480683927097E-6</v>
+        <v>1.453266008738E-5</v>
       </c>
       <c r="F13">
-        <v>6.1612139631670696E-4</v>
+        <v>9.1244344405764198E-4</v>
       </c>
       <c r="G13">
-        <v>5.50418012876191E-4</v>
+        <v>8.1514018234477102E-4</v>
       </c>
       <c r="H13" t="s">
         <v>1209</v>
@@ -13685,31 +13677,31 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B14" t="s">
         <v>1224</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D14" t="s">
         <v>1225</v>
       </c>
-      <c r="C14" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1109</v>
-      </c>
       <c r="E14" s="1">
-        <v>1.453266008738E-5</v>
+        <v>5.11403376280106E-5</v>
       </c>
       <c r="F14">
-        <v>9.1244344405764198E-4</v>
+        <v>2.9968237850014198E-3</v>
       </c>
       <c r="G14">
-        <v>8.1514018234477102E-4</v>
+        <v>2.6772415347716401E-3</v>
       </c>
       <c r="H14" t="s">
-        <v>1209</v>
+        <v>1194</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -13720,145 +13712,117 @@
         <v>1227</v>
       </c>
       <c r="C15" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
       <c r="D15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5.11403376280106E-5</v>
+        <v>577</v>
+      </c>
+      <c r="E15">
+        <v>1.21301306791416E-4</v>
       </c>
       <c r="F15">
-        <v>2.9968237850014198E-3</v>
+        <v>6.6639905418534404E-3</v>
       </c>
       <c r="G15">
-        <v>2.6772415347716401E-3</v>
+        <v>5.95334045173662E-3</v>
       </c>
       <c r="H15" t="s">
-        <v>1194</v>
+        <v>1209</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B16" t="s">
         <v>1229</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>1230</v>
       </c>
-      <c r="C16" t="s">
-        <v>1208</v>
-      </c>
       <c r="D16" t="s">
-        <v>577</v>
+        <v>1231</v>
       </c>
       <c r="E16">
-        <v>1.21301306791416E-4</v>
+        <v>8.8328876432174704E-4</v>
       </c>
       <c r="F16">
-        <v>6.6639905418534404E-3</v>
+        <v>4.3133934657712002E-2</v>
       </c>
       <c r="G16">
-        <v>5.95334045173662E-3</v>
+        <v>3.85341180224575E-2</v>
       </c>
       <c r="H16" t="s">
-        <v>1209</v>
+        <v>1232</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B17" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C17" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D17" t="s">
-        <v>1234</v>
+        <v>739</v>
       </c>
       <c r="E17">
-        <v>8.8328876432174704E-4</v>
+        <v>1.04790455159808E-3</v>
       </c>
       <c r="F17">
-        <v>4.3133934657712002E-2</v>
+        <v>4.8479373729195301E-2</v>
       </c>
       <c r="G17">
-        <v>3.85341180224575E-2</v>
+        <v>4.3309517755798603E-2</v>
       </c>
       <c r="H17" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1236</v>
+        <v>539</v>
       </c>
       <c r="B18" t="s">
+        <v>540</v>
+      </c>
+      <c r="C18" t="s">
         <v>1237</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>541</v>
+      </c>
+      <c r="E18">
+        <v>1.2149565482487E-3</v>
+      </c>
+      <c r="F18">
+        <v>4.9352550141602697E-2</v>
+      </c>
+      <c r="G18">
+        <v>4.4089578355350802E-2</v>
+      </c>
+      <c r="H18" t="s">
         <v>1238</v>
       </c>
-      <c r="D18" t="s">
-        <v>739</v>
-      </c>
-      <c r="E18">
-        <v>1.04790455159808E-3</v>
-      </c>
-      <c r="F18">
-        <v>4.8479373729195301E-2</v>
-      </c>
-      <c r="G18">
-        <v>4.3309517755798603E-2</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1239</v>
-      </c>
       <c r="I18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>539</v>
-      </c>
-      <c r="B19" t="s">
-        <v>540</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D19" t="s">
-        <v>541</v>
-      </c>
-      <c r="E19">
-        <v>1.2149565482487E-3</v>
-      </c>
-      <c r="F19">
-        <v>4.9352550141602697E-2</v>
-      </c>
-      <c r="G19">
-        <v>4.4089578355350802E-2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I19">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -13867,13 +13831,14 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -13913,7 +13878,7 @@
         <v>674</v>
       </c>
       <c r="C2" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D2" t="s">
         <v>675</v>
@@ -13928,7 +13893,7 @@
         <v>3.4725158045491701E-4</v>
       </c>
       <c r="H2" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="I2">
         <v>8</v>
@@ -13936,16 +13901,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D3" t="s">
         <v>1244</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1247</v>
       </c>
       <c r="E3" s="1">
         <v>1.16294595099473E-6</v>
@@ -13957,7 +13922,7 @@
         <v>3.4725158045491701E-4</v>
       </c>
       <c r="H3" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="I3">
         <v>7</v>
@@ -13965,16 +13930,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="B4" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C4" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D4" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="E4" s="1">
         <v>1.16294595099473E-6</v>
@@ -13986,7 +13951,7 @@
         <v>3.4725158045491701E-4</v>
       </c>
       <c r="H4" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="I4">
         <v>7</v>
@@ -13994,13 +13959,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="B5" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C5" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D5" t="s">
         <v>1090</v>
@@ -14015,7 +13980,7 @@
         <v>3.60426854244318E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -14029,7 +13994,7 @@
         <v>1085</v>
       </c>
       <c r="C6" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D6" t="s">
         <v>1086</v>
@@ -14044,7 +14009,7 @@
         <v>3.60426854244318E-2</v>
       </c>
       <c r="H6" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="I6">
         <v>8</v>
